--- a/performance.xlsx
+++ b/performance.xlsx
@@ -263,12 +263,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -581,76 +593,76 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -659,48 +671,48 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,25 +722,33 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1080,7 +1100,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -1101,307 +1121,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:14">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>9.69</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>103</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>57</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>90.8900846078433</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>-41.0767140264189</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>49.8133705814244</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>51.2255046532509</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>0.64375</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>1.22449902648078</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>129</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>160</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>1.24031007751938</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:14">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>9.2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>72</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>44</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>78.4059259999998</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>-36.7419587826086</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>41.6639672173911</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>42.6799094782608</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>0.620689655172414</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>1.30408759203756</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>129</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>116</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>0.89922480620155</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:14">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>6.73</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>93</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>64</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>262.391799745913</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>-101.25051292838</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>161.141286817533</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>158.885973551263</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>0.592356687898089</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>1.78340529522197</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>66</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>157</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>2.37878787878788</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:14">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>6.74</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>104</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>61</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>329.718275838576</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>-176.087863481306</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>153.63041235727</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>155.097521956083</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>0.63030303030303</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>1.09827245573914</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>61</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>165</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>2.70491803278688</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="2" customFormat="1" spans="1:14">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>145.66</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>33</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>36</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>34.5565306815872</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>-38.9563406887272</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>-4.39981000714</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>-5.09089059920373</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>0.478260869565217</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>0.967699552995517</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>37</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <v>69</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>1.86486486486486</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="2" customFormat="1" spans="1:14">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>102.61</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>31</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>10</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>38.6922409127765</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>-5.79759995302603</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>32.8946409597504</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>35.9945526500341</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>0.75609756097561</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>2.1528508585462</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>16</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>41</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <v>2.5625</v>
       </c>
     </row>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>cbond pair</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>avg round in a day</t>
+  </si>
+  <si>
+    <t>return_per_round</t>
   </si>
   <si>
     <t>2021-12-14 14:46:00 -&gt; 2022-06-28 15:00:00</t>
@@ -90,9 +93,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -112,6 +115,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -119,38 +144,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,23 +222,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,70 +259,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,13 +275,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,19 +323,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,157 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,11 +505,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,6 +540,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,51 +574,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -590,155 +584,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -748,9 +751,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1097,30 +1102,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="42.1538461538462" customWidth="1"/>
-    <col min="2" max="2" width="18.9134615384615" customWidth="1"/>
+    <col min="1" max="1" width="30.9326923076923" customWidth="1"/>
+    <col min="2" max="2" width="12.0096153846154" customWidth="1"/>
     <col min="3" max="3" width="13.3076923076923" customWidth="1"/>
     <col min="4" max="4" width="4.92307692307692" customWidth="1"/>
     <col min="5" max="5" width="5.07692307692308" customWidth="1"/>
     <col min="6" max="6" width="12.9230769230769" customWidth="1"/>
     <col min="7" max="7" width="14.0769230769231" customWidth="1"/>
-    <col min="8" max="8" width="21.9519230769231" customWidth="1"/>
+    <col min="8" max="8" width="19.7115384615385" customWidth="1"/>
     <col min="9" max="9" width="15.0769230769231" customWidth="1"/>
     <col min="10" max="11" width="12.9230769230769" customWidth="1"/>
     <col min="12" max="12" width="10.6923076923077" customWidth="1"/>
     <col min="13" max="13" width="11.7692307692308" customWidth="1"/>
-    <col min="14" max="14" width="16.0192307692308" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="15" width="18.3076923076923" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:15">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1160,269 +1166,290 @@
       <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
+    <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1">
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5">
         <v>9.69</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>103</v>
       </c>
-      <c r="E2" s="1">
-        <v>57</v>
-      </c>
-      <c r="F2" s="1">
-        <v>90.8900846078433</v>
-      </c>
-      <c r="G2" s="1">
-        <v>-41.0767140264189</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="E2" s="5">
+        <v>41</v>
+      </c>
+      <c r="F2" s="5">
+        <v>89.1853319302375</v>
+      </c>
+      <c r="G2" s="5">
+        <v>-39.3719613488131</v>
+      </c>
+      <c r="H2" s="5">
         <v>49.8133705814244</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="5">
         <v>51.2255046532509</v>
       </c>
-      <c r="J2" s="1">
-        <v>0.64375</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1.22449902648078</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="J2" s="5">
+        <v>0.715277777777778</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.901681200379389</v>
+      </c>
+      <c r="L2" s="5">
         <v>129</v>
       </c>
-      <c r="M2" s="1">
-        <v>160</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1.24031007751938</v>
+      <c r="M2" s="5">
+        <v>144</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1.11627906976744</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.00288605463796336</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:14">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:15">
+      <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2">
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7">
         <v>9.2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>72</v>
       </c>
-      <c r="E3" s="2">
-        <v>44</v>
-      </c>
-      <c r="F3" s="2">
-        <v>78.4059259999998</v>
-      </c>
-      <c r="G3" s="2">
-        <v>-36.7419587826086</v>
-      </c>
-      <c r="H3" s="2">
-        <v>41.6639672173911</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="E3" s="7">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7">
+        <v>77.3776840869563</v>
+      </c>
+      <c r="G3" s="7">
+        <v>-35.7137168695652</v>
+      </c>
+      <c r="H3" s="7">
+        <v>41.6639672173912</v>
+      </c>
+      <c r="I3" s="7">
         <v>42.6799094782608</v>
       </c>
-      <c r="J3" s="2">
-        <v>0.620689655172414</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1.30408759203756</v>
-      </c>
-      <c r="L3" s="2">
+      <c r="J3" s="7">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1.08330483171995</v>
+      </c>
+      <c r="L3" s="7">
         <v>129</v>
       </c>
-      <c r="M3" s="2">
-        <v>116</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0.89922480620155</v>
+      <c r="M3" s="7">
+        <v>108</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0.837209302325581</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0.00286578227713189</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:14">
+    <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1">
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5">
         <v>6.73</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>93</v>
       </c>
-      <c r="E4" s="1">
-        <v>64</v>
-      </c>
-      <c r="F4" s="1">
-        <v>262.391799745913</v>
-      </c>
-      <c r="G4" s="1">
-        <v>-101.25051292838</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="E4" s="5">
+        <v>34</v>
+      </c>
+      <c r="F4" s="5">
+        <v>254.447612028826</v>
+      </c>
+      <c r="G4" s="5">
+        <v>-93.3063252112926</v>
+      </c>
+      <c r="H4" s="5">
         <v>161.141286817533</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="5">
         <v>158.885973551263</v>
       </c>
-      <c r="J4" s="1">
-        <v>0.592356687898089</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1.78340529522197</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="J4" s="5">
+        <v>0.732283464566929</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.996972691298506</v>
+      </c>
+      <c r="L4" s="5">
         <v>66</v>
       </c>
-      <c r="M4" s="1">
-        <v>157</v>
-      </c>
-      <c r="N4" s="1">
-        <v>2.37878787878788</v>
+      <c r="M4" s="5">
+        <v>127</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1.92424242424242</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.0043103976249714</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:14">
+    <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>6.74</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>104</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
+        <v>33</v>
+      </c>
+      <c r="F5" s="5">
+        <v>322.979590690801</v>
+      </c>
+      <c r="G5" s="5">
+        <v>-169.349178333531</v>
+      </c>
+      <c r="H5" s="5">
+        <v>153.63041235727</v>
+      </c>
+      <c r="I5" s="5">
+        <v>155.097521956083</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.759124087591241</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.605163305739461</v>
+      </c>
+      <c r="L5" s="5">
         <v>61</v>
       </c>
-      <c r="F5" s="1">
-        <v>329.718275838576</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-176.087863481306</v>
-      </c>
-      <c r="H5" s="1">
-        <v>153.63041235727</v>
-      </c>
-      <c r="I5" s="1">
-        <v>155.097521956083</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.63030303030303</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1.09827245573914</v>
-      </c>
-      <c r="L5" s="1">
-        <v>61</v>
-      </c>
-      <c r="M5" s="1">
-        <v>165</v>
-      </c>
-      <c r="N5" s="1">
-        <v>2.70491803278688</v>
+      <c r="M5" s="5">
+        <v>137</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2.24590163934426</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.00422157591765785</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:14">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" s="2" customFormat="1" spans="1:15">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2">
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
         <v>145.66</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="7">
         <v>33</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="7">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7">
+        <v>33.7188284857887</v>
+      </c>
+      <c r="G6" s="7">
+        <v>-38.1186384929288</v>
+      </c>
+      <c r="H6" s="7">
+        <v>-4.39981000714001</v>
+      </c>
+      <c r="I6" s="7">
+        <v>-5.09089059920373</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.55</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.723743908182379</v>
+      </c>
+      <c r="L6" s="7">
+        <v>37</v>
+      </c>
+      <c r="M6" s="7">
+        <v>60</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1.62162162162162</v>
+      </c>
+      <c r="O6" s="7">
+        <v>-0.000419898850777553</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:15">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7">
+        <v>102.61</v>
+      </c>
+      <c r="D7" s="7">
+        <v>31</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>38.0266355068706</v>
+      </c>
+      <c r="G7" s="7">
+        <v>-5.13199454712018</v>
+      </c>
+      <c r="H7" s="7">
+        <v>32.8946409597504</v>
+      </c>
+      <c r="I7" s="7">
+        <v>35.9945526500341</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.861111111111111</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1.19511590498503</v>
+      </c>
+      <c r="L7" s="7">
+        <v>16</v>
+      </c>
+      <c r="M7" s="7">
         <v>36</v>
       </c>
-      <c r="F6" s="2">
-        <v>34.5565306815872</v>
-      </c>
-      <c r="G6" s="2">
-        <v>-38.9563406887272</v>
-      </c>
-      <c r="H6" s="2">
-        <v>-4.39981000714</v>
-      </c>
-      <c r="I6" s="2">
-        <v>-5.09089059920373</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.478260869565217</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.967699552995517</v>
-      </c>
-      <c r="L6" s="2">
-        <v>37</v>
-      </c>
-      <c r="M6" s="2">
-        <v>69</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1.86486486486486</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:14">
-      <c r="A7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2">
-        <v>102.61</v>
-      </c>
-      <c r="D7" s="2">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2">
-        <v>38.6922409127765</v>
-      </c>
-      <c r="G7" s="2">
-        <v>-5.79759995302603</v>
-      </c>
-      <c r="H7" s="2">
-        <v>32.8946409597504</v>
-      </c>
-      <c r="I7" s="2">
-        <v>35.9945526500341</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.75609756097561</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2.1528508585462</v>
-      </c>
-      <c r="L7" s="2">
-        <v>16</v>
-      </c>
-      <c r="M7" s="2">
-        <v>41</v>
-      </c>
-      <c r="N7" s="2">
-        <v>2.5625</v>
+      <c r="N7" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0.00665349077999878</v>
       </c>
     </row>
   </sheetData>
